--- a/biology/Zoologie/Jacqueline_Gilardoni/Jacqueline_Gilardoni.xlsx
+++ b/biology/Zoologie/Jacqueline_Gilardoni/Jacqueline_Gilardoni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacqueline Gilardoni, née le 24 mai 1914 à Paris 16e où elle est morte le 23 février 2001[1], a créé en 1961 l'Œuvre d'assistance aux bêtes d'abattoir (OABA).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacqueline Gilardoni, née le 24 mai 1914 à Paris 16e où elle est morte le 23 février 2001, a créé en 1961 l'Œuvre d'assistance aux bêtes d'abattoir (OABA).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Actions menées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Afin d'épargner des souffrances aux millions d'animaux abattus chaque année en France, Jacqueline Gilardoni, aidée par d'autres, en particulier des personnalités comme Édith Piaf ou Brigitte Bardot, va mener une campagne active afin de faire adopter l'obligation d'étourdir les animaux avant de les saigner. 
 Après des campagnes d'information dans le public et une pétition, l'OABA obtient enfin satisfaction : l'étourdissement devra être obtenu par frappe sur la tête ou la nuque (notamment, avec un pistolet d'abattage), ou électronarcose, ou anesthésie au gaz.
